--- a/qq.xlsx
+++ b/qq.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12090" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="2" r:id="rId1"/>
+    <sheet name="3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>__default__</t>
   </si>
@@ -103,121 +104,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,7 +126,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +163,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
@@ -267,6 +185,89 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,7 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,127 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,43 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,54 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,8 +490,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,11 +548,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +575,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +587,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1045,7 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5332,4 +5333,794 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="47.25" spans="1:10">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>23</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/qq.xlsx
+++ b/qq.xlsx
@@ -118,8 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,75 +134,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +157,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -231,15 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -247,8 +224,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +253,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,7 +278,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,97 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,61 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,30 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,6 +507,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -542,15 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1044,8 @@
   <sheetPr/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N118" sqref="N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5294,7 +5294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>119</v>
       </c>
@@ -5324,9 +5324,6 @@
       </c>
       <c r="J123">
         <v>129</v>
-      </c>
-      <c r="K123">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/qq.xlsx
+++ b/qq.xlsx
@@ -12,6 +12,38 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -109,7 +141,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,9 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +168,37 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,14 +220,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,44 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,24 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,11 +301,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -278,25 +321,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,19 +453,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,97 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +512,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,24 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -540,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,151 +597,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N118" sqref="N118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5329,6 +5372,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5338,7 +5382,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
